--- a/klinik mas gatot.xlsx
+++ b/klinik mas gatot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20730" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>halaman  operator</t>
   </si>
@@ -226,13 +226,78 @@
   </si>
   <si>
     <t>FORM FORM ITU NANTI ADA DISINI SEP YG ISI DOKTER</t>
+  </si>
+  <si>
+    <t>Jenis Tagihan</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>ID PASIEN</t>
+  </si>
+  <si>
+    <t>No Transaksi</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Dasep</t>
+  </si>
+  <si>
+    <t>PSN0001</t>
+  </si>
+  <si>
+    <t>PSN00012021021</t>
+  </si>
+  <si>
+    <t>Biaya</t>
+  </si>
+  <si>
+    <t>Konimex</t>
+  </si>
+  <si>
+    <t>Total Tagihan</t>
+  </si>
+  <si>
+    <t>Jasa Medis</t>
+  </si>
+  <si>
+    <t>Bodrex</t>
+  </si>
+  <si>
+    <t>Lain-Lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLINIK BU ITA </t>
+  </si>
+  <si>
+    <t>Jl Lodan Dalam II C</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>TERIMAK KASIH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,10 +428,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -378,20 +444,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1355,7 @@
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
@@ -1262,7 +1366,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="10" t="s">
@@ -1282,7 +1386,7 @@
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="9"/>
@@ -1294,7 +1398,7 @@
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="9"/>
@@ -1306,7 +1410,7 @@
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H33" s="9"/>
@@ -1318,7 +1422,7 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H34" s="9"/>
@@ -1330,7 +1434,7 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H35" s="9"/>
@@ -1342,7 +1446,7 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H36" s="9"/>
@@ -1354,7 +1458,7 @@
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="9"/>
@@ -1366,7 +1470,7 @@
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H38" s="9"/>
@@ -1378,7 +1482,7 @@
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H39" s="9"/>
@@ -1400,33 +1504,33 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H41" s="9"/>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11" t="s">
+      <c r="J41" s="17"/>
+      <c r="K41" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H42" s="9"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H43" s="9"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
       <c r="N43" s="9"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -1580,31 +1684,31 @@
         <v>64</v>
       </c>
       <c r="H59" s="9"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
       <c r="N59" s="9"/>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="9"/>
       <c r="G60" s="2"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
       <c r="N60" s="9"/>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="9"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1616,8 +1720,8 @@
       <c r="N61" s="9"/>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="9"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -1629,8 +1733,8 @@
       <c r="N62" s="9"/>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="9"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -1642,8 +1746,8 @@
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="9"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1701,7 +1805,7 @@
         <v>65</v>
       </c>
       <c r="H68" s="9"/>
-      <c r="I68" s="17"/>
+      <c r="I68" s="16"/>
       <c r="J68" s="9" t="s">
         <v>66</v>
       </c>
@@ -1730,14 +1834,14 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="9"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
@@ -1745,12 +1849,12 @@
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
@@ -1758,14 +1862,14 @@
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="12" t="s">
+      <c r="H72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="9"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
@@ -1773,12 +1877,12 @@
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
       <c r="N73" s="9"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
@@ -1786,12 +1890,12 @@
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
       <c r="N74" s="9"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
@@ -1799,12 +1903,12 @@
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
       <c r="N75" s="9"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
@@ -1812,12 +1916,12 @@
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
       <c r="N76" s="9"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
@@ -1825,12 +1929,12 @@
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
@@ -1859,12 +1963,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F7:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="28">
+        <v>30000</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="28">
+        <v>19000</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="28">
+        <v>29000</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="28">
+        <v>290090</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="31">
+        <f>SUM(I14:K17)</f>
+        <v>368090</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F7:K8"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/klinik mas gatot.xlsx
+++ b/klinik mas gatot.xlsx
@@ -1966,7 +1966,7 @@
   <dimension ref="F7:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F17" sqref="F17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
